--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\PARIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C2292-B4D0-4E08-A9D5-CBB2A94551DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0E64B-619D-4539-9787-FB9637B6AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1292,9 +1292,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1325,6 +1322,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1668,7 +1668,7 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1681,8 +1681,8 @@
     <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.58203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="17.4140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.58203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="17.4140625" style="26" customWidth="1"/>
     <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
@@ -1704,10 +1704,10 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1727,15 +1727,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.5">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="22"/>
       <c r="C2" s="6"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="24"/>
+      <c r="K2" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1781,22 +1781,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="11" t="s">
@@ -2042,21 +2042,21 @@
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
     </row>
     <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
     <row r="47" spans="2:14">
@@ -2076,21 +2076,21 @@
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
     </row>
     <row r="51" spans="2:14" ht="10" customHeight="1"/>
     <row r="52" spans="2:14">
@@ -2104,21 +2104,21 @@
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
     </row>
     <row r="56" spans="2:14" ht="10.5" customHeight="1"/>
     <row r="57" spans="2:14">
@@ -2185,6 +2185,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2457,30 +2480,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2497,23 +2516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\PARIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0E64B-619D-4539-9787-FB9637B6AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{628D720A-6B31-4A3B-910D-A12EB32CE860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
     <sheet name="Instrucciones" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="valores" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>SKU</t>
   </si>
@@ -1037,6 +1037,66 @@
   </si>
   <si>
     <t>9) Archivos de Apoyo Supermercados</t>
+  </si>
+  <si>
+    <t>Color del Título</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Icono 1</t>
+  </si>
+  <si>
+    <t>Icono 2</t>
+  </si>
+  <si>
+    <t>Icono 3</t>
+  </si>
+  <si>
+    <t>Icono 4</t>
+  </si>
+  <si>
+    <t>Cruelty Free</t>
+  </si>
+  <si>
+    <t>Libre de Pesticidas</t>
+  </si>
+  <si>
+    <t>No Probado en Animales</t>
+  </si>
+  <si>
+    <t>No Toxico</t>
+  </si>
+  <si>
+    <t>Probado Lab</t>
+  </si>
+  <si>
+    <t>Sin Aceite</t>
+  </si>
+  <si>
+    <t>Sin Parabenos</t>
+  </si>
+  <si>
+    <t>Sin Sulfatos</t>
+  </si>
+  <si>
+    <t>Vegano</t>
+  </si>
+  <si>
+    <t>Iconos</t>
+  </si>
+  <si>
+    <t>Icono 5</t>
+  </si>
+  <si>
+    <t>Icono 6</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1238,12 +1304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1251,9 +1316,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1289,26 +1351,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1322,6 +1369,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,30 +1740,33 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.58203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.4140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="23.4140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="3"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="23.4140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.4140625" style="2" customWidth="1"/>
+    <col min="12" max="15" width="10.6640625" style="34"/>
+    <col min="16" max="16" width="12.9140625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="34" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,16 +1779,16 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1725,38 +1800,88 @@
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.5">
-      <c r="A2" s="24"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="23"/>
+      <c r="L1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="34" customFormat="1" ht="15.5">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="33"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" s="34" customFormat="1" ht="15.5">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" s="34" customFormat="1" ht="15.5">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="I1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="C1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="K1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="C1:D1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Selecciona" prompt="Icono con característica diferenciadora" sqref="L1:Q1" xr:uid="{EA846CA1-651C-4464-A7F4-438A17BBB40C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{045DB2DC-4187-4BC0-BC9E-FBC4B427CD8E}">
           <x14:formula1>
-            <xm:f>Hoja1!$A$2:$A$5</xm:f>
+            <xm:f>valores!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E31F62F3-B593-44CC-B55D-3C69348DB355}">
+          <x14:formula1>
+            <xm:f>valores!$C$2:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:Q1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1774,360 +1899,360 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
-    <col min="2" max="7" width="10.6640625" style="10"/>
-    <col min="8" max="8" width="4.83203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="8"/>
+    <col min="8" max="8" width="4.83203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1" ht="6.5" customHeight="1">
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="1:14" s="12" customFormat="1" ht="6.5" customHeight="1">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B10" s="17" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="14.5">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="14.5">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="7" customHeight="1">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B17" s="15" t="s">
+    <row r="16" spans="1:14" s="12" customFormat="1" ht="7" customHeight="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B20" s="17" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B20" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B22" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B23" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B24" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B25" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:14" s="14" customFormat="1" ht="14.5">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:14" s="12" customFormat="1" ht="14.5">
+      <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:14" ht="7" customHeight="1">
-      <c r="B32" s="8"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="7"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" spans="2:14" ht="9" customHeight="1">
-      <c r="B41" s="8"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
     </row>
     <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
     </row>
     <row r="51" spans="2:14" ht="10" customHeight="1"/>
     <row r="52" spans="2:14">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
     </row>
     <row r="56" spans="2:14" ht="10.5" customHeight="1"/>
     <row r="57" spans="2:14">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2146,59 +2271,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CC949-4ECF-4416-A5D7-316D69416AEA}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="29" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C10">
+    <sortCondition ref="C2:C10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
-    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
-    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2207,7 +2379,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2480,18 +2652,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
-    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
+    <Responsable xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">Asignar</Responsable>
+    <TaxCatchAll xmlns="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2499,7 +2674,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2516,4 +2691,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
+    <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\PARIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628D720A-6B31-4A3B-910D-A12EB32CE860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A50C6C-E2CE-43A8-B357-7445EB05F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="valores" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plantilla!$A$1:$T$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>SKU</t>
   </si>
@@ -737,19 +737,10 @@
     <t>Descripciones Marcas y urls.xlsx</t>
   </si>
   <si>
-    <t>7) Archivos de Apoyo Easy</t>
-  </si>
-  <si>
     <t>Reporte Atributos &gt;&gt;</t>
   </si>
   <si>
     <t>Reporte URL Imágenes &gt;&gt;</t>
-  </si>
-  <si>
-    <t>https://metabase.ecomm.cencosud.com/question/1944-reporte-atributos-easy</t>
-  </si>
-  <si>
-    <t>https://metabase.ecomm.cencosud.com/question/1042-listado-de-fotos-ok</t>
   </si>
   <si>
     <t>URL archivo descargable</t>
@@ -1033,12 +1024,6 @@
     </r>
   </si>
   <si>
-    <t>8) Archivos de Apoyo Paris</t>
-  </si>
-  <si>
-    <t>9) Archivos de Apoyo Supermercados</t>
-  </si>
-  <si>
     <t>Color del Título</t>
   </si>
   <si>
@@ -1097,13 +1082,25 @@
   </si>
   <si>
     <t>Icono 6</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 1</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 2</t>
+  </si>
+  <si>
+    <t>Imagen diferenciadora 3</t>
+  </si>
+  <si>
+    <t>7) Archivos de Apoyo Paris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1192,14 +1189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -1241,7 +1230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,12 +1263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1304,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1343,11 +1326,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1361,15 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1391,11 +1365,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1740,33 +1717,36 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.4140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="23.4140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.4140625" style="2" customWidth="1"/>
-    <col min="12" max="15" width="10.6640625" style="34"/>
-    <col min="16" max="16" width="12.9140625" style="34" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="34" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="2"/>
+    <col min="12" max="15" width="10.6640625" style="29"/>
+    <col min="16" max="16" width="12.9140625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="29" customWidth="1"/>
+    <col min="18" max="18" width="23.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.9140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,13 +1756,13 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1798,69 +1778,97 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="34" customFormat="1" ht="15.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="33"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:17" s="34" customFormat="1" ht="15.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:17" s="34" customFormat="1" ht="15.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="29" customFormat="1" ht="15.5">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:20" s="29" customFormat="1" ht="15.5">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:20" s="29" customFormat="1" ht="15.5">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="29"/>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.5">
+      <c r="A7" s="29"/>
+      <c r="B7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="I7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="R7" s="33"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="29"/>
+      <c r="B8" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega la URL" prompt="Copia acá la URL del logo de la marca, debe estar alojada en nuestros servidores internos." sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega el logo" prompt="Agrega el nombre de la imagen más la extensión, Ej. logoBC.png" sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="I1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción corta del producto" prompt="Máximo 160 caracteres" sqref="C1" xr:uid="{F8596A41-6974-4826-B1EF-70DC55F8F7C0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="K1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
@@ -1891,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1906,22 +1914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
@@ -2042,27 +2050,27 @@
     </row>
     <row r="22" spans="2:14" s="12" customFormat="1" ht="14.5">
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="12" customFormat="1" ht="14.5">
       <c r="B23" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:14" s="12" customFormat="1" ht="14.5">
-      <c r="B24" s="19" t="s">
-        <v>52</v>
+      <c r="B24" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="12" customFormat="1" ht="14.5">
-      <c r="B25" s="19" t="s">
-        <v>49</v>
+      <c r="B25" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="12" customFormat="1" ht="14.5">
       <c r="B26" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>42</v>
@@ -2167,93 +2175,31 @@
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-    </row>
-    <row r="46" spans="2:14" ht="6.5" customHeight="1"/>
+      <c r="B45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+    </row>
+    <row r="46" spans="2:14" ht="10" customHeight="1"/>
     <row r="47" spans="2:14">
       <c r="B47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-    </row>
-    <row r="51" spans="2:14" ht="10" customHeight="1"/>
-    <row r="52" spans="2:14">
-      <c r="B52" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-    </row>
-    <row r="56" spans="2:14" ht="10.5" customHeight="1"/>
-    <row r="57" spans="2:14">
-      <c r="B57" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2262,8 +2208,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I26" r:id="rId1" display="https://cnco.sharepoint.com/:x:/s/CatalogoEasycl/EdJiiji6o21BgQjnk1HPqV0BNeV6udspR1WTUAGAn5ia9A?e=an5pdC" xr:uid="{10B3D824-167D-4B52-8378-83865BF1C3E2}"/>
-    <hyperlink ref="D47" r:id="rId2" xr:uid="{008AB884-5E6A-4301-B0C6-09F66B0077AE}"/>
-    <hyperlink ref="D48" r:id="rId3" xr:uid="{C535BD89-5E4B-4695-A5B7-E2DD41A0641A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,81 +2229,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>75</v>
+      <c r="B1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="29" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="29" t="s">
+    <row r="9" spans="1:3">
+      <c r="C9" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+    <row r="10" spans="1:3">
+      <c r="C10" s="24" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="29" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2371,15 +2315,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2652,7 +2587,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
@@ -2666,15 +2601,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2693,7 +2629,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2702,4 +2638,12 @@
     <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Plantilla_Descripciones.xlsx
+++ b/Plantilla_Descripciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroav\OneDrive - Cencosud\Escritorio\creador emcoionales\PARIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A50C6C-E2CE-43A8-B357-7445EB05F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92283386-747C-4767-9216-E168DD41B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,6 +1024,9 @@
     </r>
   </si>
   <si>
+    <t>8) Archivos de Apoyo Paris</t>
+  </si>
+  <si>
     <t>Color del Título</t>
   </si>
   <si>
@@ -1091,9 +1094,6 @@
   </si>
   <si>
     <t>Imagen diferenciadora 3</t>
-  </si>
-  <si>
-    <t>7) Archivos de Apoyo Paris</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1368,11 +1368,14 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,19 +1720,19 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.4140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="20" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" style="20" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="23.4140625" style="2" customWidth="1"/>
@@ -1739,10 +1742,10 @@
     <col min="11" max="11" width="22.4140625" style="2" customWidth="1"/>
     <col min="12" max="15" width="10.6640625" style="29"/>
     <col min="16" max="16" width="12.9140625" style="29" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="29" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="24.9140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="29" customWidth="1"/>
+    <col min="18" max="18" width="19.9140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
     <col min="21" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -1781,31 +1784,31 @@
         <v>45</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="29" customFormat="1" ht="15.5">
@@ -1844,29 +1847,24 @@
     <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="29"/>
       <c r="B5" s="25"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="29"/>
       <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:20" ht="15.5">
-      <c r="A7" s="29"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="25"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="I7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="29"/>
-      <c r="B8" s="25"/>
+      <c r="I7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecciona el nombre del Botón" error="Selecciona un valor" promptTitle="Selecciona el nombre del Botón" prompt="El valor asignado será el nombre del botón que se exportará en tu HTML" sqref="J1" xr:uid="{58D4D367-2441-4F6E-B5BF-3EA63E54DAE8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agrega el logo" prompt="Agrega el nombre de la imagen más la extensión, Ej. logoBC.png" sqref="H1" xr:uid="{7EBD71B9-1EFD-4DA9-A871-25C354788B7D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL de video YouTube" prompt="Copia acá la URL del video" sqref="I1" xr:uid="{208F1013-8476-4515-94BC-5F6767B5B78F}"/>
@@ -1874,6 +1872,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="URL descargable" prompt="Copia acá la URL del archivo que se descargará desde el botón asignado." sqref="K1" xr:uid="{D6E7040A-E391-44AA-B05D-A84C302C89FC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Descripción larga del producto" prompt="Agrega en texto plano la descripción del producto, este texto será posteriormente exportado en formato HTML" sqref="C1:D1" xr:uid="{3354DBC6-3E02-40D3-AEC1-1DFA8EBC5EC8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Selecciona" prompt="Icono con característica diferenciadora" sqref="L1:Q1" xr:uid="{EA846CA1-651C-4464-A7F4-438A17BBB40C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Imagen Principal" prompt="Copia el nombre de la imagen + la extensión (.webp)" sqref="R1" xr:uid="{5BB66D20-9295-4600-BFBB-4F55115F3C35}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Imagen N2" prompt="Copia el nombre de la imagen + la extensión (.webp)" sqref="S1" xr:uid="{262DDD7B-5458-4D28-8EFF-CEBD51B2E490}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Imagen N3" prompt="Copia el nombre de la imagen + la extensión (.webp)" sqref="T1" xr:uid="{1243492E-DDCF-47BD-B276-EAF49D54127B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1901,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7723370-56E9-4881-9B7E-A550A5CE3D70}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -1914,22 +1915,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
@@ -2176,7 +2177,7 @@
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="21" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -2233,10 +2234,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2244,10 +2245,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2255,10 +2256,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2266,10 +2267,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2278,32 +2279,32 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2315,6 +2316,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B869598098E27B4E8174F3E7E3DF9850" ma:contentTypeVersion="25" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2fe4687d3c4ddfb9f07c8193b890e5a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5" xmlns:ns3="fdc75039-bc8c-474c-9431-d14a0cbc6ed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14af53c225958a97363547b142f1ba32" ns2:_="" ns3:_="">
     <xsd:import namespace="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5"/>
@@ -2587,7 +2597,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Estado xmlns="8d0bafbf-366d-4b9f-b2e2-db56bcbd6ed5">PENDIENTE</Estado>
@@ -2601,16 +2611,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E68785C-58D5-4A71-9F35-4731966D4909}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2629,7 +2638,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3561AA-2E2E-4F89-9843-E28D57B3C4EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2638,12 +2647,4 @@
     <ds:schemaRef ds:uri="fdc75039-bc8c-474c-9431-d14a0cbc6ed1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004C00E6-E16C-4438-976E-CCE2EC5F223E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>